--- a/PBL2022_WEB01/01.レビュー申請/20221124/レビュー記録(Web1).xlsx
+++ b/PBL2022_WEB01/01.レビュー申請/20221124/レビュー記録(Web1).xlsx
@@ -13,8 +13,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="G34">
+      <text>
+        <t xml:space="preserve">登録欄ではなく一覧画面の説明かも？
+	-20RS149鷲崎 大成</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="228">
   <si>
     <t>レビュー記録</t>
   </si>
@@ -90,6 +106,9 @@
     <t>日付を更新しました。</t>
   </si>
   <si>
+    <t>仲山</t>
+  </si>
+  <si>
     <t>全画面</t>
   </si>
   <si>
@@ -103,6 +122,12 @@
     <t>改善要望</t>
   </si>
   <si>
+    <t>PC利用を想定し、画面イメージを変更しました。</t>
+  </si>
+  <si>
+    <t>鷲崎</t>
+  </si>
+  <si>
     <t>シートの並び</t>
   </si>
   <si>
@@ -137,6 +162,9 @@
   </si>
   <si>
     <t>仕様確認</t>
+  </si>
+  <si>
+    <t>店舗情報の最大表示件数は10件としました。</t>
   </si>
   <si>
     <t>⑥並べ替え入力欄
@@ -151,6 +179,9 @@
     <t>並び替え入力欄・絞り込み入力欄を画面の左に配置しました。</t>
   </si>
   <si>
+    <t>鷲﨑</t>
+  </si>
+  <si>
     <t>⑥並べ替え入力欄</t>
   </si>
   <si>
@@ -159,11 +190,17 @@
 ※ログイン後〜も同様</t>
   </si>
   <si>
+    <t>並び替え入力欄の仕切りを無くしました。</t>
+  </si>
+  <si>
     <t>並べ替えはどのように行いますか？
 検索ボタンのように並べ替えボタンはないのでしょうか？
 ※ログイン後〜も同様</t>
   </si>
   <si>
+    <t>並び替えボタン・絞り込みボタンを設置し、検索・並び替え・絞り込みをそれぞれ別のタイミングで実行するようにしました。</t>
+  </si>
+  <si>
     <t xml:space="preserve">画面設計（ログイン後店舗情報一覧画面) </t>
   </si>
   <si>
@@ -177,6 +214,9 @@
   </si>
   <si>
     <t>ログアウトでは？</t>
+  </si>
+  <si>
+    <t>ログアウトボタンに修正しました。</t>
   </si>
   <si>
     <t>備考欄</t>
@@ -186,6 +226,9 @@
 この画面の仕様には合致しないはずですので見直しをお願いします。</t>
   </si>
   <si>
+    <t>仕様に合うように訂正しました。</t>
+  </si>
+  <si>
     <t xml:space="preserve">画面設計（マイページ) </t>
   </si>
   <si>
@@ -221,6 +264,9 @@
   <si>
     <t>3つのチェックボックスはそれぞれ項目が別だと思われるため、それぞれ項目説明が必要です。
 ※店舗情報編集も同様</t>
+  </si>
+  <si>
+    <t>テイクアウトフォームのみを残し、出前は「出前サイト等のURL」が入力されていれば出前が可能と判断するようにしました。</t>
   </si>
   <si>
     <t>④店舗画像投稿欄</t>
@@ -238,7 +284,7 @@
 ※店舗情報編集も同様</t>
   </si>
   <si>
-    <t>最大1件までと定義しました。</t>
+    <t>最大1件まで投稿可能と定義しました。</t>
   </si>
   <si>
     <t>一度登録した画像を削除・差し替えする場合にはどのようにすれば良いですか？
@@ -246,6 +292,9 @@
 ※店舗情報編集も同様</t>
   </si>
   <si>
+    <t>画像の入力後、入力した画像を確認するフォームで登録ボタンの位置に画像を廃棄するボタンを設置し、画像の配置と画像を登録する処理を併用して画像の差し替えを行うようにしました</t>
+  </si>
+  <si>
     <t>⑥住所入力欄</t>
   </si>
   <si>
@@ -261,6 +310,9 @@
 ※店舗情報編集も同様</t>
   </si>
   <si>
+    <t>住所欄を1つにまとめました。</t>
+  </si>
+  <si>
     <t>②店舗名入力欄
 ⑤店舗説明入力欄</t>
   </si>
@@ -270,7 +322,7 @@
 ※店舗情報編集も同様</t>
   </si>
   <si>
-    <t>テキストボックスで入力を受け付けると修正しました</t>
+    <t>テキストボックスに書き換えました。</t>
   </si>
   <si>
     <t>⑦〜</t>
@@ -302,7 +354,7 @@
     <t>マイページから遷移してきた場合はマイページに戻るのではないでしょうか？</t>
   </si>
   <si>
-    <t>1つ前の画面に戻るという文章に変更しました。</t>
+    <t>一つ前の画面に遷移するとしました。</t>
   </si>
   <si>
     <t>⑮口コミ</t>
@@ -311,7 +363,7 @@
     <t>自身投稿した口コミがある場合、表示されないでしょうか？理由は何でしょうか？</t>
   </si>
   <si>
-    <t>⑭に表示されているためです。</t>
+    <t>口コミはアカウント1つに対して店舗に1つまでとしています</t>
   </si>
   <si>
     <t>テーブル設計（店舗情報）</t>
@@ -324,9 +376,6 @@
   </si>
   <si>
     <t>仕様不備</t>
-  </si>
-  <si>
-    <t>データ型を文字列に変更しました。</t>
   </si>
   <si>
     <t>口コミID</t>
@@ -1534,7 +1583,9 @@
         <v>23</v>
       </c>
       <c r="H12" s="31"/>
-      <c r="I12" s="30"/>
+      <c r="I12" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="J12" s="32"/>
     </row>
     <row r="13">
@@ -1544,20 +1595,24 @@
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="30"/>
+        <v>28</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>29</v>
+      </c>
       <c r="H13" s="31"/>
-      <c r="I13" s="30"/>
+      <c r="I13" s="30" t="s">
+        <v>30</v>
+      </c>
       <c r="J13" s="32"/>
     </row>
     <row r="14">
@@ -1567,20 +1622,22 @@
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="35" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H14" s="31"/>
-      <c r="I14" s="30"/>
+      <c r="I14" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="J14" s="36"/>
     </row>
     <row r="15">
@@ -1590,20 +1647,22 @@
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H15" s="31"/>
-      <c r="I15" s="30"/>
+      <c r="I15" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="J15" s="36"/>
     </row>
     <row r="16">
@@ -1613,13 +1672,13 @@
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>22</v>
@@ -1637,17 +1696,21 @@
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
       <c r="D17" s="34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>42</v>
+      </c>
       <c r="H17" s="31"/>
-      <c r="I17" s="30"/>
+      <c r="I17" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="J17" s="36"/>
     </row>
     <row r="18">
@@ -1658,19 +1721,21 @@
       <c r="B18" s="37"/>
       <c r="C18" s="35"/>
       <c r="D18" s="34" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H18" s="31"/>
-      <c r="I18" s="30"/>
+      <c r="I18" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="J18" s="36"/>
     </row>
     <row r="19">
@@ -1681,17 +1746,21 @@
       <c r="B19" s="37"/>
       <c r="C19" s="35"/>
       <c r="D19" s="34" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="34"/>
+        <v>28</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>49</v>
+      </c>
       <c r="H19" s="31"/>
-      <c r="I19" s="30"/>
+      <c r="I19" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="J19" s="36"/>
     </row>
     <row r="20">
@@ -1702,17 +1771,21 @@
       <c r="B20" s="37"/>
       <c r="C20" s="35"/>
       <c r="D20" s="34" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>51</v>
+      </c>
       <c r="H20" s="31"/>
-      <c r="I20" s="30"/>
+      <c r="I20" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="J20" s="36"/>
     </row>
     <row r="21">
@@ -1722,13 +1795,13 @@
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="35" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>22</v>
@@ -1746,17 +1819,21 @@
       <c r="B22" s="37"/>
       <c r="C22" s="34"/>
       <c r="D22" s="35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="34"/>
+      <c r="G22" s="34" t="s">
+        <v>57</v>
+      </c>
       <c r="H22" s="31"/>
-      <c r="I22" s="30"/>
+      <c r="I22" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="J22" s="36"/>
     </row>
     <row r="23">
@@ -1767,17 +1844,21 @@
       <c r="B23" s="37"/>
       <c r="C23" s="34"/>
       <c r="D23" s="35" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F23" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="34"/>
+      <c r="G23" s="34" t="s">
+        <v>60</v>
+      </c>
       <c r="H23" s="31"/>
-      <c r="I23" s="30"/>
+      <c r="I23" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="J23" s="36"/>
     </row>
     <row r="24">
@@ -1787,22 +1868,24 @@
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="38" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H24" s="31"/>
-      <c r="I24" s="30"/>
+      <c r="I24" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="J24" s="36"/>
     </row>
     <row r="25">
@@ -1812,22 +1895,24 @@
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="34" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H25" s="31"/>
-      <c r="I25" s="34"/>
+      <c r="I25" s="34" t="s">
+        <v>24</v>
+      </c>
       <c r="J25" s="36"/>
     </row>
     <row r="26">
@@ -1838,19 +1923,21 @@
       <c r="B26" s="37"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H26" s="31"/>
-      <c r="I26" s="34"/>
+      <c r="I26" s="34" t="s">
+        <v>24</v>
+      </c>
       <c r="J26" s="36"/>
     </row>
     <row r="27">
@@ -1861,17 +1948,21 @@
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="34" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="34"/>
+      <c r="G27" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="H27" s="31"/>
-      <c r="I27" s="34"/>
+      <c r="I27" s="34" t="s">
+        <v>46</v>
+      </c>
       <c r="J27" s="36"/>
     </row>
     <row r="28">
@@ -1882,19 +1973,21 @@
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="34" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H28" s="31"/>
-      <c r="I28" s="34"/>
+      <c r="I28" s="34" t="s">
+        <v>24</v>
+      </c>
       <c r="J28" s="36"/>
     </row>
     <row r="29">
@@ -1905,16 +1998,16 @@
       <c r="B29" s="34"/>
       <c r="C29" s="37"/>
       <c r="D29" s="34" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H29" s="31"/>
       <c r="I29" s="34"/>
@@ -1928,17 +2021,21 @@
       <c r="B30" s="34"/>
       <c r="C30" s="37"/>
       <c r="D30" s="34" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>79</v>
+      </c>
       <c r="H30" s="31"/>
-      <c r="I30" s="34"/>
+      <c r="I30" s="34" t="s">
+        <v>24</v>
+      </c>
       <c r="J30" s="36"/>
     </row>
     <row r="31">
@@ -1949,19 +2046,21 @@
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
       <c r="D31" s="34" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H31" s="31"/>
-      <c r="I31" s="34"/>
+      <c r="I31" s="34" t="s">
+        <v>24</v>
+      </c>
       <c r="J31" s="36"/>
     </row>
     <row r="32">
@@ -1972,17 +2071,21 @@
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
       <c r="D32" s="34" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="34"/>
+      <c r="G32" s="34" t="s">
+        <v>84</v>
+      </c>
       <c r="H32" s="41"/>
-      <c r="I32" s="34"/>
+      <c r="I32" s="34" t="s">
+        <v>46</v>
+      </c>
       <c r="J32" s="36"/>
     </row>
     <row r="33">
@@ -1993,16 +2096,16 @@
       <c r="B33" s="37"/>
       <c r="C33" s="34"/>
       <c r="D33" s="34" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F33" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="34"/>
@@ -2016,13 +2119,13 @@
       <c r="B34" s="37"/>
       <c r="C34" s="34"/>
       <c r="D34" s="34" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G34" s="34"/>
       <c r="H34" s="41"/>
@@ -2037,17 +2140,21 @@
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
       <c r="D35" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="34" t="s">
-        <v>68</v>
-      </c>
       <c r="F35" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="34"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="31"/>
+      <c r="I35" s="34" t="s">
+        <v>24</v>
+      </c>
       <c r="J35" s="36"/>
     </row>
     <row r="36" ht="13.5" customHeight="1">
@@ -2058,16 +2165,16 @@
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
       <c r="D36" s="34" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F36" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H36" s="41"/>
       <c r="I36" s="34"/>
@@ -2080,19 +2187,19 @@
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="34" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H37" s="41"/>
       <c r="I37" s="34"/>
@@ -2106,19 +2213,21 @@
       <c r="B38" s="37"/>
       <c r="C38" s="34"/>
       <c r="D38" s="34" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H38" s="41"/>
-      <c r="I38" s="34"/>
+      <c r="I38" s="34" t="s">
+        <v>46</v>
+      </c>
       <c r="J38" s="36"/>
     </row>
     <row r="39" ht="13.5" customHeight="1">
@@ -2128,20 +2237,18 @@
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="34" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>93</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G39" s="34"/>
       <c r="H39" s="41"/>
       <c r="I39" s="34"/>
       <c r="J39" s="36"/>
@@ -2154,16 +2261,16 @@
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
       <c r="D40" s="34" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="H40" s="41"/>
       <c r="I40" s="34"/>
@@ -2177,19 +2284,21 @@
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
       <c r="D41" s="34" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="H41" s="41"/>
-      <c r="I41" s="34"/>
+      <c r="I41" s="34" t="s">
+        <v>24</v>
+      </c>
       <c r="J41" s="36"/>
     </row>
     <row r="42" ht="13.5" customHeight="1">
@@ -2264,7 +2373,8 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2333,7 +2443,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="8"/>
@@ -2366,11 +2476,11 @@
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="20" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="19"/>
@@ -2382,11 +2492,11 @@
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="20" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="19"/>
@@ -2453,12 +2563,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="45"/>
@@ -2487,28 +2597,28 @@
         <v>3</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="H14" s="48">
         <v>44879.0</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J14" s="53"/>
     </row>
@@ -3001,7 +3111,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="8"/>
@@ -3036,11 +3146,11 @@
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="20" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="21" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="19"/>
@@ -3052,11 +3162,11 @@
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="20" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="21" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="19"/>
@@ -3124,27 +3234,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="H12" s="48">
         <v>44872.0</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" s="72" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -3153,29 +3263,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H13" s="48">
         <v>44872.0</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -3187,22 +3297,22 @@
       <c r="C14" s="54"/>
       <c r="D14" s="30"/>
       <c r="E14" s="34" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H14" s="48">
         <v>44872.0</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
@@ -3212,28 +3322,28 @@
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="54" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H15" s="48">
         <v>44872.0</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J15" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
@@ -3244,25 +3354,25 @@
       <c r="B16" s="55"/>
       <c r="C16" s="54"/>
       <c r="D16" s="30" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H16" s="48">
         <v>44872.0</v>
       </c>
       <c r="I16" s="47" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J16" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -3273,25 +3383,25 @@
       <c r="B17" s="55"/>
       <c r="C17" s="50"/>
       <c r="D17" s="35" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H17" s="48">
         <v>44872.0</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J17" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
@@ -3302,25 +3412,25 @@
       <c r="B18" s="55"/>
       <c r="C18" s="50"/>
       <c r="D18" s="35" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F18" s="52" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H18" s="48">
         <v>44872.0</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J18" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19">
@@ -3331,25 +3441,25 @@
       <c r="B19" s="55"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H19" s="48">
         <v>44872.0</v>
       </c>
       <c r="I19" s="47" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J19" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20">
@@ -3360,25 +3470,25 @@
       <c r="B20" s="55"/>
       <c r="C20" s="56"/>
       <c r="D20" s="39" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H20" s="48">
         <v>44872.0</v>
       </c>
       <c r="I20" s="47" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J20" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21">
@@ -3390,22 +3500,22 @@
       <c r="C21" s="59"/>
       <c r="D21" s="39"/>
       <c r="E21" s="40" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H21" s="48">
         <v>44872.0</v>
       </c>
       <c r="I21" s="47" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J21" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22">
@@ -3416,25 +3526,25 @@
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
       <c r="D22" s="34" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H22" s="48">
         <v>44872.0</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J22" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23">
@@ -3443,31 +3553,31 @@
         <v>12</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="H23" s="48">
         <v>44872.0</v>
       </c>
       <c r="I23" s="52" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J23" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24">
@@ -3478,25 +3588,25 @@
       <c r="B24" s="55"/>
       <c r="C24" s="61"/>
       <c r="D24" s="34" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H24" s="48">
         <v>44872.0</v>
       </c>
       <c r="I24" s="52" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="J24" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25">
@@ -3507,25 +3617,25 @@
       <c r="B25" s="55"/>
       <c r="C25" s="61"/>
       <c r="D25" s="34" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F25" s="52" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H25" s="48">
         <v>44872.0</v>
       </c>
       <c r="I25" s="52" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J25" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26">
@@ -3536,25 +3646,25 @@
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="34" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F26" s="52" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="H26" s="48">
         <v>44872.0</v>
       </c>
       <c r="I26" s="52" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J26" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27">
@@ -3565,25 +3675,25 @@
       <c r="B27" s="50"/>
       <c r="C27" s="55"/>
       <c r="D27" s="34" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F27" s="52" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H27" s="48">
         <v>44872.0</v>
       </c>
       <c r="I27" s="52" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="J27" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28">
@@ -3594,25 +3704,25 @@
       <c r="B28" s="50"/>
       <c r="C28" s="55"/>
       <c r="D28" s="34" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="F28" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" s="50" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H28" s="48">
         <v>44872.0</v>
       </c>
       <c r="I28" s="52" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J28" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29">
@@ -3623,25 +3733,25 @@
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="34" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F29" s="52" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="50" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H29" s="48">
         <v>44872.0</v>
       </c>
       <c r="I29" s="52" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J29" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30">
@@ -3651,28 +3761,28 @@
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="50" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F30" s="52" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="50" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="H30" s="62">
         <v>44872.0</v>
       </c>
       <c r="I30" s="52" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="J30" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31">
@@ -3683,25 +3793,25 @@
       <c r="B31" s="55"/>
       <c r="C31" s="50"/>
       <c r="D31" s="34" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F31" s="52" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H31" s="62">
         <v>44872.0</v>
       </c>
       <c r="I31" s="52" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="J31" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32">
@@ -3712,25 +3822,25 @@
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
       <c r="D32" s="34" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="H32" s="62">
         <v>44872.0</v>
       </c>
       <c r="I32" s="52" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="J32" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33">
@@ -3741,25 +3851,25 @@
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="34" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F33" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="H33" s="62">
         <v>44872.0</v>
       </c>
       <c r="I33" s="52" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="J33" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
@@ -3770,25 +3880,25 @@
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="34" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="F34" s="52" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H34" s="62">
         <v>44872.0</v>
       </c>
       <c r="I34" s="52" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="J34" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
@@ -3799,25 +3909,25 @@
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
       <c r="D35" s="34" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G35" s="50" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H35" s="62">
         <v>44872.0</v>
       </c>
       <c r="I35" s="52" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="J35" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
@@ -3828,25 +3938,25 @@
       <c r="B36" s="55"/>
       <c r="C36" s="61"/>
       <c r="D36" s="63" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E36" s="63" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F36" s="64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H36" s="62">
         <v>44872.0</v>
       </c>
       <c r="I36" s="52" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="J36" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1">
@@ -3857,25 +3967,25 @@
       <c r="B37" s="55"/>
       <c r="C37" s="61"/>
       <c r="D37" s="63" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F37" s="52" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="50" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="H37" s="62">
         <v>44872.0</v>
       </c>
       <c r="I37" s="52" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="J37" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1">
@@ -4049,11 +4159,11 @@
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="20" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="20" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="19"/>
@@ -4132,31 +4242,31 @@
         <v>1</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H12" s="48">
         <v>44865.0</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J12" s="72" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -4166,28 +4276,28 @@
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="50" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="H13" s="48">
         <v>44865.0</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14">
@@ -4197,28 +4307,28 @@
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="50" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="H14" s="48">
         <v>44865.0</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15">
@@ -4228,28 +4338,28 @@
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="50" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H15" s="48">
         <v>44865.0</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J15" s="73" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16">
@@ -4259,28 +4369,28 @@
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="50" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="H16" s="48">
         <v>44865.0</v>
       </c>
       <c r="I16" s="47" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J16" s="73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -4290,26 +4400,26 @@
       </c>
       <c r="B17" s="55"/>
       <c r="C17" s="56" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D17" s="78"/>
       <c r="E17" s="79" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="H17" s="48">
         <v>44865.0</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J17" s="73" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
@@ -4319,28 +4429,28 @@
       </c>
       <c r="B18" s="55"/>
       <c r="C18" s="59" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F18" s="81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="H18" s="48">
         <v>44865.0</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J18" s="73" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19">
